--- a/tabela_vendas_nova.xlsx
+++ b/tabela_vendas_nova.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos em Git-Python\IEM IT\Aulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos em Git-Python\IEM IT Oficial (Youtube)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339D37AC-B06F-4880-A96C-AB7E17222C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26F946-F703-40B5-A38F-2736D3CF7AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="1440" windowWidth="27540" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>ID_Venda</t>
   </si>
@@ -146,27 +146,6 @@
   </si>
   <si>
     <t>Produto_9</t>
-  </si>
-  <si>
-    <t>Preco_Unitario</t>
-  </si>
-  <si>
-    <t>Desconto</t>
-  </si>
-  <si>
-    <t>Forma_Pagamento</t>
-  </si>
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>Regiao</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Valor_Total</t>
   </si>
 </sst>
 </file>
@@ -570,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,27 +577,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
